--- a/Jogos_do_Dia/2024-02-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>5.72</v>
       </c>
       <c r="J2" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.32</v>
@@ -718,10 +718,10 @@
         <v>3.92</v>
       </c>
       <c r="S2" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="T2" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
         <v>1.74</v>
@@ -754,43 +754,43 @@
         <v>3.65</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="3">
@@ -830,13 +830,13 @@
         <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M3" t="n">
         <v>1.4</v>
@@ -857,10 +857,10 @@
         <v>3.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
         <v>1.83</v>
@@ -893,43 +893,43 @@
         <v>2.76</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="4">
@@ -969,13 +969,13 @@
         <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L4" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="M4" t="n">
         <v>1.44</v>
@@ -996,10 +996,10 @@
         <v>3.4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
         <v>1.91</v>
@@ -1108,13 +1108,13 @@
         <v>3.18</v>
       </c>
       <c r="J5" t="n">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.13</v>
       </c>
       <c r="L5" t="n">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="M5" t="n">
         <v>1.48</v>
@@ -1135,10 +1135,10 @@
         <v>2.75</v>
       </c>
       <c r="S5" t="n">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="T5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="n">
         <v>1.89</v>
@@ -1247,13 +1247,13 @@
         <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="K6" t="n">
-        <v>7.5</v>
+        <v>5.95</v>
       </c>
       <c r="L6" t="n">
-        <v>15</v>
+        <v>11.8</v>
       </c>
       <c r="M6" t="n">
         <v>1.2</v>
@@ -1274,10 +1274,10 @@
         <v>6.25</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="T6" t="n">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="U6" t="n">
         <v>1.91</v>
